--- a/data/long_razon/P18_6-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_6-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-33,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 10,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 51,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 53,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,23; -18,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,25; 124,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 44,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -12,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,38; 78,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 39,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-47,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-41,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,17; -32,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 70,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 80,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; -19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 86,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 26,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -31,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 68,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 40,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>72,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 73,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 132,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 195,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 47,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 173,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 97,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 30,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 116,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 106,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -15,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 48,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 54,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,42; -21,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,58; 97,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 28,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,02; -23,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,97; 62,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 34,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_6-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_6-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1930440211758273</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.129687863478509</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2317196913671321</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2130168239977669</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.3436306839062229</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.8374425494898351</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1952369465185489</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.05512871779758076</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2806868518631085</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.461137237862121</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.2125542766228754</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1267382446480262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.3774229172579052</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1647550511301572</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.06878365887323414</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.09820019563429287</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4584438754495343</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.4798583194123363</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.0156459811721612</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1663465846122221</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3846977434422429</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.2060053325394596</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.03947710308776685</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.04389201739131388</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.1434935576322972</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4953984373983462</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.5935028245172835</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.6118003094070618</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1903200271438509</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.27530139046643</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4541823752776641</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.3109891035631556</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.1332265493608003</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7160183130164754</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.4273996657876422</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.3719440876384077</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.4395519892299539</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2892635967341488</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3611841240993539</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2832967713649525</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3755096097019613</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4563226969430291</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.01734569207781243</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.2267799909963713</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.4052886580525371</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3751469209117782</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1436898324989658</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2538629605701617</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.5789976285053495</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.05139156599345981</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.02979694411210744</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.06259772791949342</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.5010517753930206</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.131439794960723</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2119348141236577</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.03444950409358893</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5019269171448817</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.1217715520427498</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.03469678751654074</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.03590779777582418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.2554692355980672</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7969150837418773</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.7996216169177082</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.7508733512487054</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.1880697576437332</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8613154797884417</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2154033752220739</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5990986908572296</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.2813211707342047</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.6870186670688165</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.3477415095531446</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.5364290182301061</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2092959412043729</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2409062367781309</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6736053168206595</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.274387075432126</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2109389369908416</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.8715548611405669</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.2761015923855041</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.388020721678952</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2100665611722105</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.5285114624105485</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.4442451654057178</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2174952761654196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.5963892549646584</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2523669173738118</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.004977877796408804</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2163978113030373</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.5010147052421087</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.2149710175983088</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1327289595164682</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.6443087566572038</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4853916829003916</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.08319649159322444</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.007838043865102607</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.1953925079346051</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.4111992566191321</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.168563299720098</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.999231271736123</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.446823201380256</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.2474416855083265</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.071321453588406</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.076947539778565</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.003534572339913563</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1214283996955251</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.248187183185128</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.036909406322418</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.9568215708362169</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.3035744412771444</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2035009026897424</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3216049954535764</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3508011767423358</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.3438645042298184</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.6783060498574082</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1146657735983127</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.050502923533166</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.3256941956913252</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.4339709156550422</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2077613046726058</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.1861580380230331</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4408632587465112</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.01672550018655231</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1037673545775738</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1221189842976781</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4341799618057562</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.4572164445892332</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.03250243464037702</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1113237791458381</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.395053645478156</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2678391881238014</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.08245752187866282</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.03818321113391028</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.1540721068997734</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4624601757747403</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5725819180275246</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6808431779787691</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.2356985034883188</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9864435909174779</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2648501445788034</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2360407015870774</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.2357541452978622</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6252495845240711</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.354138852486158</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3536794728099829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
